--- a/References/Aircraft Design.xlsx
+++ b/References/Aircraft Design.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Aircraft-Design-\References\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28621a3077d578c5/Documents/School by Semester/GitHub/Aircraft-Design-/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC30612-0027-4B3E-8F56-B603738C66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{BEC30612-0027-4B3E-8F56-B603738C66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00AEA181-EC38-4528-9B2C-E2BC15EA1A8C}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="1392" windowWidth="15372" windowHeight="10416" xr2:uid="{681F82B7-3EBF-4DDD-ADBE-4396AE6018C8}"/>
+    <workbookView minimized="1" xWindow="360" yWindow="360" windowWidth="14400" windowHeight="7290" xr2:uid="{681F82B7-3EBF-4DDD-ADBE-4396AE6018C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1231,7 +1231,493 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BOW vs MTOW</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28109953013366518"/>
+                  <c:y val="4.7274856343418575E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="12700">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$I$11,Sheet1!$I$14,Sheet1!$I$15,Sheet1!$I$16,Sheet1!$I$18,Sheet1!$I$19,Sheet1!$I$21,Sheet1!$I$22,Sheet1!$I$23,Sheet1!$I$28,Sheet1!$I$31,Sheet1!$I$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13971</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15660</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7394</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$J$11,Sheet1!$J$14,Sheet1!$J$15,Sheet1!$J$16,Sheet1!$J$18,Sheet1!$J$19,Sheet1!$J$21,Sheet1!$J$22,Sheet1!$J$23,Sheet1!$J$28,Sheet1!$J$31,Sheet1!$J$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4983</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4776.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8442-4391-882A-49896EE90195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="884686912"/>
+        <c:axId val="884687872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="884686912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884687872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="884687872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884686912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1787,6 +2273,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1825,11 +2827,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52916</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BE49F0-E44F-B8C3-ECF1-2924E21ACCE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2151,39 +3185,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA607A3-9329-4EF9-988F-2DCE234EDDC3}">
   <dimension ref="A1:AB67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.6796875" customWidth="1"/>
+    <col min="4" max="4" width="17.31640625" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="24.6796875" customWidth="1"/>
+    <col min="8" max="8" width="19.6796875" customWidth="1"/>
+    <col min="9" max="9" width="22.6796875" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="12" max="12" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="13.86328125" customWidth="1"/>
+    <col min="14" max="14" width="19.54296875" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.86328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="22" max="22" width="7.5546875" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" customWidth="1"/>
+    <col min="20" max="20" width="17.6796875" customWidth="1"/>
+    <col min="21" max="21" width="13.6796875" customWidth="1"/>
+    <col min="22" max="22" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="26" width="13.31640625" customWidth="1"/>
+    <col min="27" max="27" width="12.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.75">
       <c r="K1">
         <v>1100</v>
       </c>
@@ -2200,7 +3234,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.75">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -2247,7 +3281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
@@ -2295,7 +3329,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -2346,7 +3380,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2397,7 +3431,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +3479,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -2496,7 +3530,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
@@ -2544,7 +3578,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
@@ -2592,7 +3626,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>38</v>
       </c>
@@ -2639,7 +3673,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +3720,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2736,7 +3770,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
@@ -2784,7 +3818,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>48</v>
       </c>
@@ -2831,7 +3865,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2881,7 +3915,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -2932,7 +3966,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -2982,7 +4016,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A18" s="2" t="s">
         <v>60</v>
       </c>
@@ -3033,7 +4067,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A19" s="2" t="s">
         <v>64</v>
       </c>
@@ -3084,7 +4118,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
@@ -3132,7 +4166,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
@@ -3180,7 +4214,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B22" s="2" t="s">
         <v>73</v>
       </c>
@@ -3228,7 +4262,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3278,7 +4312,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3325,7 +4359,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3372,7 +4406,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>84</v>
       </c>
@@ -3419,7 +4453,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>86</v>
       </c>
@@ -3466,7 +4500,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B28" t="s">
         <v>89</v>
       </c>
@@ -3513,7 +4547,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B29" s="2" t="s">
         <v>91</v>
       </c>
@@ -3561,11 +4595,11 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D30">
@@ -3611,7 +4645,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B31" t="s">
         <v>98</v>
       </c>
@@ -3658,7 +4692,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.75">
       <c r="B32" t="s">
         <v>101</v>
       </c>
@@ -3705,7 +4739,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.75">
       <c r="C37" s="7" t="s">
         <v>104</v>
       </c>
@@ -3746,7 +4780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -3793,7 +4827,7 @@
         <v>136.125</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B39" s="2" t="s">
         <v>117</v>
       </c>
@@ -3837,11 +4871,11 @@
         <v>22.478512500000001</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O39:O67" si="2">L39*(1/M39)*(1/2.2)</f>
+        <f t="shared" ref="O39:O66" si="2">L39*(1/M39)*(1/2.2)</f>
         <v>1761.2596158497572</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B40" t="s">
         <v>120</v>
       </c>
@@ -3889,7 +4923,7 @@
         <v>3403.0151817133365</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B41" t="s">
         <v>123</v>
       </c>
@@ -3921,7 +4955,7 @@
         <v>4.67</v>
       </c>
       <c r="L41">
-        <f t="shared" ref="L39:L67" si="3">(I6*9.81)/N41</f>
+        <f t="shared" ref="L41:L67" si="3">(I6*9.81)/N41</f>
         <v>2420.0407236275355</v>
       </c>
       <c r="M41">
@@ -3937,7 +4971,7 @@
         <v>2016.6776406501665</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>125</v>
       </c>
@@ -3980,7 +5014,7 @@
         <v>34.445000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B43" t="s">
         <v>130</v>
       </c>
@@ -4028,7 +5062,7 @@
         <v>4782.7622473949777</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B44" t="s">
         <v>132</v>
       </c>
@@ -4076,7 +5110,7 @@
         <v>5620.8763253918369</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B45" t="s">
         <v>135</v>
       </c>
@@ -4124,7 +5158,7 @@
         <v>3987.6519392155633</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B46" t="s">
         <v>120</v>
       </c>
@@ -4172,7 +5206,7 @@
         <v>5027.580695021521</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B47" t="s">
         <v>138</v>
       </c>
@@ -4220,7 +5254,7 @@
         <v>5286.8512759687956</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.75">
       <c r="B48" t="s">
         <v>140</v>
       </c>
@@ -4268,7 +5302,7 @@
         <v>2276.9992490653854</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B49" s="2" t="s">
         <v>140</v>
       </c>
@@ -4316,7 +5350,7 @@
         <v>2648.6667692765313</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B50" t="s">
         <v>138</v>
       </c>
@@ -4364,7 +5398,7 @@
         <v>2672.931087441254</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B51" t="s">
         <v>145</v>
       </c>
@@ -4412,7 +5446,7 @@
         <v>2720.0985487551729</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B52" s="2" t="s">
         <v>117</v>
       </c>
@@ -4460,7 +5494,7 @@
         <v>2266.4916179145439</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B53" s="2" t="s">
         <v>120</v>
       </c>
@@ -4508,7 +5542,7 @@
         <v>5683.293084803955</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B54" t="s">
         <v>138</v>
       </c>
@@ -4556,7 +5590,7 @@
         <v>4633.0967123643832</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B55" t="s">
         <v>150</v>
       </c>
@@ -4604,7 +5638,7 @@
         <v>2278.1742442065588</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B56" t="s">
         <v>152</v>
       </c>
@@ -4652,7 +5686,7 @@
         <v>2971.7069530264512</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B57" t="s">
         <v>130</v>
       </c>
@@ -4700,7 +5734,7 @@
         <v>3653.3732719239965</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B58" t="s">
         <v>156</v>
       </c>
@@ -4748,7 +5782,7 @@
         <v>4194.804732313235</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B59" t="s">
         <v>120</v>
       </c>
@@ -4796,7 +5830,7 @@
         <v>4179.9219469711106</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B60" t="s">
         <v>79</v>
       </c>
@@ -4844,7 +5878,7 @@
         <v>4686.3737132411989</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.75">
       <c r="B61" t="s">
         <v>84</v>
       </c>
@@ -4892,7 +5926,7 @@
         <v>5367.7784564649182</v>
       </c>
     </row>
-    <row r="62" spans="2:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:15" ht="15.25" x14ac:dyDescent="0.85">
       <c r="C62" t="s">
         <v>87</v>
       </c>
@@ -4937,7 +5971,7 @@
         <v>6193.9173250827016</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.75">
       <c r="C63" t="s">
         <v>87</v>
       </c>
@@ -4982,7 +6016,7 @@
         <v>4229.3752175849322</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.75">
       <c r="C64" t="s">
         <v>92</v>
       </c>
@@ -5027,7 +6061,7 @@
         <v>3134.1954486606928</v>
       </c>
     </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.75">
       <c r="C65" t="s">
         <v>96</v>
       </c>
@@ -5068,7 +6102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="3:15" ht="15" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:15" ht="15.25" x14ac:dyDescent="0.85">
       <c r="C66" t="s">
         <v>99</v>
       </c>
@@ -5113,7 +6147,7 @@
         <v>4098.7621593948097</v>
       </c>
     </row>
-    <row r="67" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.75">
       <c r="C67" t="s">
         <v>102</v>
       </c>
@@ -5176,30 +6210,14 @@
     <hyperlink ref="B38" r:id="rId23" xr:uid="{00F4CABE-5BA0-46C3-9C86-4D2B027FCE89}"/>
     <hyperlink ref="A38" r:id="rId24" xr:uid="{DBCC35BD-3DFC-4EDC-A00C-1D680D9F643E}"/>
     <hyperlink ref="A26" r:id="rId25" xr:uid="{EDA0C5DA-B5B5-4CF6-9655-1046538E8685}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{72DE9E00-0848-4410-A0A0-8547097B9632}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId26"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4fb64c0c-9afe-4adf-a483-468e4c44ab6b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008389D2ED818456458132DD38139A545A" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b9926f9d21de3b5a492ace325226963a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4fb64c0c-9afe-4adf-a483-468e4c44ab6b" xmlns:ns4="74654645-235d-4d44-8a20-63b7d1a7be02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="187ca842ca873b4bb078ca4e327af625" ns3:_="" ns4:_="">
     <xsd:import namespace="4fb64c0c-9afe-4adf-a483-468e4c44ab6b"/>
@@ -5444,32 +6462,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609F3305-A1B2-409E-AB08-82FFA0F4F252}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="74654645-235d-4d44-8a20-63b7d1a7be02"/>
-    <ds:schemaRef ds:uri="4fb64c0c-9afe-4adf-a483-468e4c44ab6b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CE265C-8527-4BC9-9A1A-1F590EC76533}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4fb64c0c-9afe-4adf-a483-468e4c44ab6b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBB1ECF2-EDF6-47CE-8200-2152CA0A78A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5486,4 +6496,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61CE265C-8527-4BC9-9A1A-1F590EC76533}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{609F3305-A1B2-409E-AB08-82FFA0F4F252}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="74654645-235d-4d44-8a20-63b7d1a7be02"/>
+    <ds:schemaRef ds:uri="4fb64c0c-9afe-4adf-a483-468e4c44ab6b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>